--- a/data/trans_orig/P16-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>200536</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>179807</v>
+        <v>176646</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>223575</v>
+        <v>223097</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4232713076268998</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3795192641558117</v>
+        <v>0.3728471621628305</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4719011260173008</v>
+        <v>0.4708920302370949</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>164</v>
@@ -765,19 +765,19 @@
         <v>165954</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>149435</v>
+        <v>148679</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>184088</v>
+        <v>184017</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5411323347921232</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4872680451414669</v>
+        <v>0.4848031271095663</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6002606318030168</v>
+        <v>0.6000303761471408</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>359</v>
@@ -786,19 +786,19 @@
         <v>366491</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>338616</v>
+        <v>341630</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>394347</v>
+        <v>394942</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4695847795491405</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4338692076353772</v>
+        <v>0.4377311538248195</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5052775401912454</v>
+        <v>0.5060393693172038</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>273240</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>250201</v>
+        <v>250679</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>293969</v>
+        <v>297130</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5767286923731002</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5280988739826984</v>
+        <v>0.5291079697629053</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6204807358441883</v>
+        <v>0.6271528378371696</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>134</v>
@@ -836,19 +836,19 @@
         <v>140726</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>122592</v>
+        <v>122663</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>157245</v>
+        <v>158001</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4588676652078768</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3997393681969832</v>
+        <v>0.3999696238528592</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5127319548585331</v>
+        <v>0.5151968728904337</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>394</v>
@@ -857,19 +857,19 @@
         <v>413966</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>386110</v>
+        <v>385515</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>441841</v>
+        <v>438827</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5304152204508594</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4947224598087541</v>
+        <v>0.4939606306827961</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5661307923646227</v>
+        <v>0.5622688461751805</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>145937</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>125864</v>
+        <v>127010</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>164891</v>
+        <v>165245</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3977209298632565</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3430151047757884</v>
+        <v>0.3461379061538481</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.449373846503521</v>
+        <v>0.4503407031281767</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>193</v>
@@ -982,19 +982,19 @@
         <v>198289</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>179697</v>
+        <v>180026</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>217764</v>
+        <v>217221</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5332292947108561</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4832329708981041</v>
+        <v>0.4841162855958639</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5855984046148035</v>
+        <v>0.5841402017965622</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>337</v>
@@ -1003,19 +1003,19 @@
         <v>344227</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>316400</v>
+        <v>316645</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>373707</v>
+        <v>373530</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4659273019675373</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4282621289561047</v>
+        <v>0.4285939152739492</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5058307208083545</v>
+        <v>0.5055908194207392</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>220997</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>202043</v>
+        <v>201689</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>241070</v>
+        <v>239924</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6022790701367435</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5506261534964789</v>
+        <v>0.5496592968718232</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6569848952242116</v>
+        <v>0.6538620938461519</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>170</v>
@@ -1053,19 +1053,19 @@
         <v>173576</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>154101</v>
+        <v>154644</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>192168</v>
+        <v>191839</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4667707052891439</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4144015953851966</v>
+        <v>0.4158597982034378</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5167670291018961</v>
+        <v>0.5158837144041362</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>376</v>
@@ -1074,19 +1074,19 @@
         <v>394572</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>365092</v>
+        <v>365269</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>422399</v>
+        <v>422154</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5340726980324627</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4941692791916453</v>
+        <v>0.494409180579261</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5717378710438953</v>
+        <v>0.5714060847260514</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>221357</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>198030</v>
+        <v>198884</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>243025</v>
+        <v>243402</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4081152951947538</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3651078477899196</v>
+        <v>0.3666813882973349</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4480633992238741</v>
+        <v>0.4487597435595477</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>89</v>
@@ -1199,19 +1199,19 @@
         <v>90603</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>77262</v>
+        <v>76593</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>102169</v>
+        <v>103735</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5400048791241804</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4604878147799524</v>
+        <v>0.4565042130217139</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6089412728295602</v>
+        <v>0.6182750898111317</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>313</v>
@@ -1220,19 +1220,19 @@
         <v>311960</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>287029</v>
+        <v>285551</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>341026</v>
+        <v>339038</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4392749538196125</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4041686045909183</v>
+        <v>0.4020872690558014</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4802029158237916</v>
+        <v>0.4774040224185022</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>321032</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>299364</v>
+        <v>298987</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>344359</v>
+        <v>343505</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5918847048052462</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5519366007761258</v>
+        <v>0.5512402564404524</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6348921522100804</v>
+        <v>0.6333186117026651</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>75</v>
@@ -1270,19 +1270,19 @@
         <v>77179</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>65613</v>
+        <v>64047</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>90520</v>
+        <v>91189</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4599951208758197</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3910587271704403</v>
+        <v>0.3817249101888683</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5395121852200476</v>
+        <v>0.5434957869782856</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>383</v>
@@ -1291,19 +1291,19 @@
         <v>398211</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>369145</v>
+        <v>371133</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>423142</v>
+        <v>424620</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5607250461803875</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5197970841762084</v>
+        <v>0.5225959775814979</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5958313954090818</v>
+        <v>0.5979127309441985</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>559396</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>525796</v>
+        <v>524153</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>594484</v>
+        <v>594094</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4517327004155829</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4245997751606593</v>
+        <v>0.4232730051376982</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4800677271172768</v>
+        <v>0.4797525492601499</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>381</v>
@@ -1416,19 +1416,19 @@
         <v>384157</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>355465</v>
+        <v>356764</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>409904</v>
+        <v>410995</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5378209256864976</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.497652007675312</v>
+        <v>0.499470400509623</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5738665174707769</v>
+        <v>0.5753940340831326</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>950</v>
@@ -1437,19 +1437,19 @@
         <v>943554</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>901562</v>
+        <v>902445</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>989672</v>
+        <v>989228</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4832245241682958</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4617189567489047</v>
+        <v>0.4621713287409329</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5068430142804902</v>
+        <v>0.5066157970947773</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>678938</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>643850</v>
+        <v>644240</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>712538</v>
+        <v>714181</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5482672995844171</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5199322728827228</v>
+        <v>0.5202474507398501</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5754002248393406</v>
+        <v>0.5767269948623018</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>313</v>
@@ -1487,19 +1487,19 @@
         <v>330128</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>304381</v>
+        <v>303290</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>358820</v>
+        <v>357521</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4621790743135024</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4261334825292231</v>
+        <v>0.4246059659168674</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5023479923246879</v>
+        <v>0.5005295994903769</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>968</v>
@@ -1508,19 +1508,19 @@
         <v>1009066</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>962948</v>
+        <v>963392</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1051058</v>
+        <v>1050175</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5167754758317041</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4931569857195099</v>
+        <v>0.4933842029052227</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5382810432510954</v>
+        <v>0.5378286712590672</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>142305</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>122181</v>
+        <v>125032</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>160200</v>
+        <v>160887</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4071246355933906</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3495513984253822</v>
+        <v>0.3577070356441168</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4583211637222367</v>
+        <v>0.4602854903674111</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>332</v>
@@ -1633,19 +1633,19 @@
         <v>350943</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>328845</v>
+        <v>326510</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>375353</v>
+        <v>372431</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6170406048046038</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5781871038710179</v>
+        <v>0.5740810392018008</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6599594731723769</v>
+        <v>0.6548222654377621</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>474</v>
@@ -1654,19 +1654,19 @@
         <v>493248</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>458800</v>
+        <v>463079</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>521517</v>
+        <v>525098</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5371382822905952</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4996249507172621</v>
+        <v>0.5042846665916099</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5679227754957739</v>
+        <v>0.5718225270015902</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>207232</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>189337</v>
+        <v>188650</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>227356</v>
+        <v>224505</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5928753644066094</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.541678836277763</v>
+        <v>0.5397145096325888</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6504486015746178</v>
+        <v>0.6422929643558831</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>207</v>
@@ -1704,19 +1704,19 @@
         <v>217809</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>193399</v>
+        <v>196321</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>239907</v>
+        <v>242242</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3829593951953962</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3400405268276227</v>
+        <v>0.3451777345622379</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.421812896128982</v>
+        <v>0.425918960798199</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>404</v>
@@ -1725,19 +1725,19 @@
         <v>425041</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>396772</v>
+        <v>393191</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>459489</v>
+        <v>455210</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4628617177094047</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4320772245042263</v>
+        <v>0.42817747299841</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.500375049282738</v>
+        <v>0.4957153334083902</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>55402</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>42759</v>
+        <v>42721</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>68954</v>
+        <v>68462</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1857881276099303</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1433900854404128</v>
+        <v>0.1432639123302779</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2312347460454154</v>
+        <v>0.2295826518402908</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>773</v>
@@ -1850,19 +1850,19 @@
         <v>788455</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>750499</v>
+        <v>754407</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>819825</v>
+        <v>822152</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6313902557614072</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6009954767036728</v>
+        <v>0.6041244959600276</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6565111237427717</v>
+        <v>0.6583748042883687</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>831</v>
@@ -1871,19 +1871,19 @@
         <v>843857</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>802350</v>
+        <v>803710</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>881280</v>
+        <v>883134</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5454935507294503</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5186621375763265</v>
+        <v>0.5195416627389027</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5696852831654307</v>
+        <v>0.5708835665089991</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>242799</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>229247</v>
+        <v>229739</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>255442</v>
+        <v>255480</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8142118723900698</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7687652539545846</v>
+        <v>0.7704173481597092</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8566099145595872</v>
+        <v>0.856736087669722</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>465</v>
@@ -1921,19 +1921,19 @@
         <v>460305</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>428935</v>
+        <v>426608</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>498261</v>
+        <v>494353</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3686097442385928</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3434888762572285</v>
+        <v>0.3416251957116313</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3990045232963272</v>
+        <v>0.3958755040399724</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>713</v>
@@ -1942,19 +1942,19 @@
         <v>703103</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>665680</v>
+        <v>663826</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>744610</v>
+        <v>743250</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4545064492705497</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4303147168345696</v>
+        <v>0.4291164334910009</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4813378624236735</v>
+        <v>0.4804583372610974</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>1324934</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1268740</v>
+        <v>1271439</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1380129</v>
+        <v>1382106</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4052812731011082</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3880920602619935</v>
+        <v>0.3889177802431432</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4221648312749082</v>
+        <v>0.422769453064848</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1932</v>
@@ -2067,19 +2067,19 @@
         <v>1978402</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1926672</v>
+        <v>1920309</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2040786</v>
+        <v>2040544</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5856511559763073</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5703379717726087</v>
+        <v>0.5684543456680835</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6041182233960942</v>
+        <v>0.6040464990638813</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3264</v>
@@ -2088,19 +2088,19 @@
         <v>3303336</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3220782</v>
+        <v>3224439</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3383347</v>
+        <v>3389443</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4969443865988007</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4845251504509124</v>
+        <v>0.4850752329132031</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5089809278772807</v>
+        <v>0.5098979954040126</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>1944238</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1889043</v>
+        <v>1887066</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2000432</v>
+        <v>1997733</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5947187268988918</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5778351687250918</v>
+        <v>0.577230546935152</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6119079397380065</v>
+        <v>0.6110822197568567</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1364</v>
@@ -2138,19 +2138,19 @@
         <v>1399722</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1337338</v>
+        <v>1337580</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1451452</v>
+        <v>1457815</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4143488440236926</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3958817766039058</v>
+        <v>0.3959535009361186</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4296620282273913</v>
+        <v>0.4315456543319166</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3238</v>
@@ -2159,19 +2159,19 @@
         <v>3343960</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3263949</v>
+        <v>3257853</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3426514</v>
+        <v>3422857</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5030556134011993</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4910190721227194</v>
+        <v>0.4901020045959873</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5154748495490875</v>
+        <v>0.5149247670867968</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>215062</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>193618</v>
+        <v>192163</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>237558</v>
+        <v>237769</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4918958069957142</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4428480610549653</v>
+        <v>0.4395190543508387</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5433491530872823</v>
+        <v>0.5438319539591805</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>173</v>
@@ -2526,19 +2526,19 @@
         <v>192332</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>173625</v>
+        <v>173607</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>209325</v>
+        <v>208883</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6116382225984097</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5521462058628804</v>
+        <v>0.552089211252603</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6656762395222455</v>
+        <v>0.6642715012646172</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>364</v>
@@ -2547,19 +2547,19 @@
         <v>407394</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>377582</v>
+        <v>376754</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>436796</v>
+        <v>433382</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5419892799017713</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5023275632154837</v>
+        <v>0.5012255502660928</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5811052030211504</v>
+        <v>0.5765625383955506</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>222149</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>199653</v>
+        <v>199442</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>243593</v>
+        <v>245048</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5081041930042858</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4566508469127178</v>
+        <v>0.4561680460408195</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5571519389450348</v>
+        <v>0.5604809456491615</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>110</v>
@@ -2597,19 +2597,19 @@
         <v>122122</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>105129</v>
+        <v>105571</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>140829</v>
+        <v>140847</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3883617774015902</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3343237604777543</v>
+        <v>0.3357284987353827</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4478537941371195</v>
+        <v>0.4479107887473969</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>323</v>
@@ -2618,19 +2618,19 @@
         <v>344271</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>314869</v>
+        <v>318283</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>374083</v>
+        <v>374911</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4580107200982287</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4188947969788495</v>
+        <v>0.4234374616044494</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4976724367845163</v>
+        <v>0.4987744497339071</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>208641</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>182951</v>
+        <v>186092</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>229121</v>
+        <v>233543</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5003165186838278</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4387134385408917</v>
+        <v>0.4462449257660305</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5494264373197211</v>
+        <v>0.5600297965440271</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>192</v>
@@ -2743,19 +2743,19 @@
         <v>215316</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>196252</v>
+        <v>196879</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>233151</v>
+        <v>231483</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.638855035708132</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5822911128018797</v>
+        <v>0.5841506794739202</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6917741950419443</v>
+        <v>0.6868236358383401</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>380</v>
@@ -2764,19 +2764,19 @@
         <v>423957</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>395458</v>
+        <v>394112</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>452817</v>
+        <v>455213</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.562238301011838</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5244442207515231</v>
+        <v>0.5226583951206791</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6005113410489981</v>
+        <v>0.6036888377852252</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>208377</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>187897</v>
+        <v>183475</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>234067</v>
+        <v>230926</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4996834813161722</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.450573562680279</v>
+        <v>0.439970203455973</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5612865614591083</v>
+        <v>0.5537550742339695</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>112</v>
@@ -2814,19 +2814,19 @@
         <v>121718</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>103883</v>
+        <v>105551</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>140782</v>
+        <v>140155</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.361144964291868</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.308225804958056</v>
+        <v>0.3131763641616599</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4177088871981204</v>
+        <v>0.4158493205260799</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>297</v>
@@ -2835,19 +2835,19 @@
         <v>330095</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>301235</v>
+        <v>298839</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>358594</v>
+        <v>359940</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.437761698988162</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3994886589510018</v>
+        <v>0.3963111622147749</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4755557792484762</v>
+        <v>0.4773416048793209</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>349869</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>322480</v>
+        <v>326037</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>376543</v>
+        <v>375744</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5568238227330122</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5132340720259506</v>
+        <v>0.5188949139335907</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5992762359250783</v>
+        <v>0.5980050421825348</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>165</v>
@@ -2960,19 +2960,19 @@
         <v>175360</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>159501</v>
+        <v>159790</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>190954</v>
+        <v>190629</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6741279139633742</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6131624104251483</v>
+        <v>0.614270948696561</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7340739693215158</v>
+        <v>0.7328232425451078</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>486</v>
@@ -2981,19 +2981,19 @@
         <v>525229</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>496613</v>
+        <v>492960</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>556333</v>
+        <v>553477</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5911689698199547</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5589595365787828</v>
+        <v>0.5548487407940662</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.626177196052538</v>
+        <v>0.6229631983534941</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>278460</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>251786</v>
+        <v>252585</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>305849</v>
+        <v>302292</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4431761772669878</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4007237640749216</v>
+        <v>0.4019949578174652</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.486765927974049</v>
+        <v>0.4811050860664093</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>79</v>
@@ -3031,19 +3031,19 @@
         <v>84769</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>69175</v>
+        <v>69500</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>100628</v>
+        <v>100339</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3258720860366258</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.265926030678484</v>
+        <v>0.2671767574548922</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3868375895748515</v>
+        <v>0.385729051303439</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>348</v>
@@ -3052,19 +3052,19 @@
         <v>363230</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>332126</v>
+        <v>334982</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>391846</v>
+        <v>395499</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4088310301800453</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3738228039474618</v>
+        <v>0.3770368016465058</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4410404634212171</v>
+        <v>0.4451512592059332</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>609337</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>575855</v>
+        <v>572812</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>643534</v>
+        <v>647307</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.526138655207383</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4972281096294072</v>
+        <v>0.4946005133026692</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5556663008381374</v>
+        <v>0.5589242291086087</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>478</v>
@@ -3177,19 +3177,19 @@
         <v>517746</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>488624</v>
+        <v>489333</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>542358</v>
+        <v>542756</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6753299362095569</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6373441394301658</v>
+        <v>0.6382685057609137</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7074318889006528</v>
+        <v>0.7079513383000482</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1040</v>
@@ -3198,19 +3198,19 @@
         <v>1127084</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1079234</v>
+        <v>1086793</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1170899</v>
+        <v>1174482</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5855626673873974</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5607026027636404</v>
+        <v>0.5646298755235046</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6083261367841021</v>
+        <v>0.6101877731140078</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>548793</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>514596</v>
+        <v>510823</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>582275</v>
+        <v>585318</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4738613447926169</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4443336991618626</v>
+        <v>0.4410757708913915</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5027718903705929</v>
+        <v>0.5053994866973308</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>233</v>
@@ -3248,19 +3248,19 @@
         <v>248911</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>224299</v>
+        <v>223901</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>278033</v>
+        <v>277324</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3246700637904431</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2925681110993472</v>
+        <v>0.2920486616999518</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3626558605698342</v>
+        <v>0.3617314942390863</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>753</v>
@@ -3269,19 +3269,19 @@
         <v>797704</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>753889</v>
+        <v>750306</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>845554</v>
+        <v>837995</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4144373326126026</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.391673863215898</v>
+        <v>0.3898122268859918</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.43929739723636</v>
+        <v>0.4353701244764952</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>257888</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>235378</v>
+        <v>233482</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>280601</v>
+        <v>278814</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5050734372983203</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4609872433509729</v>
+        <v>0.4572728777735389</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5495566586864852</v>
+        <v>0.546055247111545</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>535</v>
@@ -3394,19 +3394,19 @@
         <v>576189</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>547850</v>
+        <v>547992</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>599045</v>
+        <v>599172</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7576578616945276</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7203941514632092</v>
+        <v>0.7205808696157784</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7877126751596865</v>
+        <v>0.7878797661909793</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>778</v>
@@ -3415,19 +3415,19 @@
         <v>834078</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>799927</v>
+        <v>801619</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>867758</v>
+        <v>868758</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6561943136854874</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6293269696867942</v>
+        <v>0.6306573892327169</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6826910798615335</v>
+        <v>0.6834781483930097</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>252708</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>229995</v>
+        <v>231782</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>275218</v>
+        <v>277114</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4949265627016797</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4504433413135149</v>
+        <v>0.453944752888455</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.539012756649027</v>
+        <v>0.5427271222264611</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>167</v>
@@ -3465,19 +3465,19 @@
         <v>184298</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>161442</v>
+        <v>161315</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>212637</v>
+        <v>212495</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2423421383054724</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2122873248403137</v>
+        <v>0.2121202338090208</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2796058485367908</v>
+        <v>0.279419130384222</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>411</v>
@@ -3486,19 +3486,19 @@
         <v>437006</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>403326</v>
+        <v>402326</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>471157</v>
+        <v>469465</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3438056863145125</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3173089201384666</v>
+        <v>0.3165218516069904</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3706730303132058</v>
+        <v>0.3693426107672832</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>80521</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>66220</v>
+        <v>66604</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>95330</v>
+        <v>95648</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3028924103401762</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2490953651429079</v>
+        <v>0.2505404715632037</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3585964304827963</v>
+        <v>0.3597930349139032</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>762</v>
@@ -3611,19 +3611,19 @@
         <v>813681</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>782781</v>
+        <v>784027</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>842477</v>
+        <v>843427</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7340640915291177</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7061870698231074</v>
+        <v>0.7073110211847177</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7600418129706057</v>
+        <v>0.7608993215863586</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>840</v>
@@ -3632,19 +3632,19 @@
         <v>894203</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>858279</v>
+        <v>859422</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>931808</v>
+        <v>929026</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6506594630291974</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6245201702097812</v>
+        <v>0.6253513238874712</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6780227338571629</v>
+        <v>0.675998542065093</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>185320</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>170511</v>
+        <v>170193</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>199621</v>
+        <v>199237</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6971075896598239</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6414035695172039</v>
+        <v>0.6402069650860969</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7509046348570921</v>
+        <v>0.7494595284367963</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>281</v>
@@ -3682,19 +3682,19 @@
         <v>294780</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>265984</v>
+        <v>265034</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>325680</v>
+        <v>324434</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2659359084708823</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.239958187029394</v>
+        <v>0.2391006784136413</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2938129301768923</v>
+        <v>0.2926889788152823</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>467</v>
@@ -3703,19 +3703,19 @@
         <v>480099</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>442494</v>
+        <v>445276</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>516023</v>
+        <v>514880</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3493405369708025</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3219772661428371</v>
+        <v>0.3240014579349069</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3754798297902187</v>
+        <v>0.3746486761125285</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>1721318</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1663635</v>
+        <v>1662006</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1782618</v>
+        <v>1779393</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5037329583908583</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4868523431150623</v>
+        <v>0.4863755285475986</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5216718486163791</v>
+        <v>0.5207281848995094</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2305</v>
@@ -3828,19 +3828,19 @@
         <v>2490626</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2431375</v>
+        <v>2436906</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2544834</v>
+        <v>2546265</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7021339316170839</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.685430213900717</v>
+        <v>0.6869896029623762</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7174157246791794</v>
+        <v>0.7178190735493376</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3888</v>
@@ -3849,19 +3849,19 @@
         <v>4211945</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4123474</v>
+        <v>4133730</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4295549</v>
+        <v>4299811</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6047865741315033</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5920831953714256</v>
+        <v>0.5935558551178662</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6167912218223405</v>
+        <v>0.6174031741445967</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>1695807</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1634507</v>
+        <v>1637732</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1753490</v>
+        <v>1755119</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4962670416091416</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4783281513836209</v>
+        <v>0.4792718151004907</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5131476568849378</v>
+        <v>0.5136244714524014</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>982</v>
@@ -3899,19 +3899,19 @@
         <v>1056598</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1002390</v>
+        <v>1000959</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1115849</v>
+        <v>1110318</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2978660683829161</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2825842753208206</v>
+        <v>0.2821809264506623</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.314569786099283</v>
+        <v>0.3130103970376235</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2599</v>
@@ -3920,19 +3920,19 @@
         <v>2752404</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2668800</v>
+        <v>2664538</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2840875</v>
+        <v>2830619</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3952134258684968</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3832087781776595</v>
+        <v>0.3825968258554033</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4079168046285744</v>
+        <v>0.4064441448821338</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>226911</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>205240</v>
+        <v>205782</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>246934</v>
+        <v>248365</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5288173927865795</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4783124948905301</v>
+        <v>0.4795764747153048</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5754808851486614</v>
+        <v>0.5788163719498662</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>179</v>
@@ -4287,19 +4287,19 @@
         <v>192259</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>172943</v>
+        <v>174013</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>210379</v>
+        <v>210417</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5539733035128095</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4983152188205104</v>
+        <v>0.5013999187614633</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6061833617058817</v>
+        <v>0.6062933605711488</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>389</v>
@@ -4308,19 +4308,19 @@
         <v>419171</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>390499</v>
+        <v>391434</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>445919</v>
+        <v>445976</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5400658846054568</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5031247648472347</v>
+        <v>0.50432965718056</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5745289789424952</v>
+        <v>0.5746030757550722</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>202181</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>182158</v>
+        <v>180727</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>223852</v>
+        <v>223310</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4711826072134205</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4245191148513382</v>
+        <v>0.4211836280501337</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5216875051094699</v>
+        <v>0.5204235252846952</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>153</v>
@@ -4358,19 +4358,19 @@
         <v>154796</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>136676</v>
+        <v>136638</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>174112</v>
+        <v>173042</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4460266964871906</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3938166382941183</v>
+        <v>0.3937066394288511</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5016847811794896</v>
+        <v>0.4986000812385368</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>339</v>
@@ -4379,19 +4379,19 @@
         <v>356976</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>330228</v>
+        <v>330171</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>385648</v>
+        <v>384713</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4599341153945432</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4254710210575044</v>
+        <v>0.4253969242449279</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4968752351527653</v>
+        <v>0.4956703428194401</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>188924</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>168903</v>
+        <v>169399</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>209385</v>
+        <v>210084</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5008241905108622</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4477488122460521</v>
+        <v>0.4490628767369296</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5550627702272098</v>
+        <v>0.5569173314847939</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>196</v>
@@ -4504,19 +4504,19 @@
         <v>209502</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>186350</v>
+        <v>190958</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>228906</v>
+        <v>228117</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5627633529434193</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5005732889997021</v>
+        <v>0.5129511937474277</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.614887338974246</v>
+        <v>0.6127681998137621</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>375</v>
@@ -4525,19 +4525,19 @@
         <v>398426</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>369328</v>
+        <v>371402</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>426663</v>
+        <v>427148</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5315890822233502</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4927661376940936</v>
+        <v>0.4955331349484799</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5692631972582776</v>
+        <v>0.5699112660129627</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>188303</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>167842</v>
+        <v>167143</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>208324</v>
+        <v>207828</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4991758094891378</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4449372297727902</v>
+        <v>0.4430826685152061</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5522511877539479</v>
+        <v>0.5509371232630704</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>156</v>
@@ -4575,19 +4575,19 @@
         <v>162771</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>143367</v>
+        <v>144156</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>185923</v>
+        <v>181315</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4372366470565807</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3851126610257542</v>
+        <v>0.3872318001862378</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.499426711000298</v>
+        <v>0.4870488062525724</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>331</v>
@@ -4596,19 +4596,19 @@
         <v>351074</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>322837</v>
+        <v>322352</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>380172</v>
+        <v>378098</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4684109177766497</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4307368027417225</v>
+        <v>0.4300887339870372</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5072338623059064</v>
+        <v>0.5044668650515201</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>291233</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>266117</v>
+        <v>266224</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>313438</v>
+        <v>312715</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5580094454044646</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.509886983944899</v>
+        <v>0.5100921109477157</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6005551314489247</v>
+        <v>0.5991687885959767</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>104</v>
@@ -4721,19 +4721,19 @@
         <v>116231</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>102950</v>
+        <v>103606</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>126991</v>
+        <v>127591</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6996653807711843</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6197212637985383</v>
+        <v>0.6236694244198676</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7644408688662884</v>
+        <v>0.7680505547011691</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>386</v>
@@ -4742,19 +4742,19 @@
         <v>407463</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>383224</v>
+        <v>381322</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>433660</v>
+        <v>433077</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5922115282599715</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5569820594819278</v>
+        <v>0.5542175457509826</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6302872419703573</v>
+        <v>0.6294396238821063</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>230681</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>208476</v>
+        <v>209199</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>255797</v>
+        <v>255690</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4419905545955354</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3994448685510749</v>
+        <v>0.4008312114040234</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4901130160551008</v>
+        <v>0.4899078890522844</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>49</v>
@@ -4792,19 +4792,19 @@
         <v>49892</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>39132</v>
+        <v>38532</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>63173</v>
+        <v>62517</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3003346192288157</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2355591311337116</v>
+        <v>0.2319494452988309</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3802787362014617</v>
+        <v>0.3763305755801323</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>269</v>
@@ -4813,19 +4813,19 @@
         <v>280573</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>254376</v>
+        <v>254959</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>304812</v>
+        <v>306714</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4077884717400285</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3697127580296427</v>
+        <v>0.3705603761178934</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4430179405180723</v>
+        <v>0.4457824542490173</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>597451</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>561061</v>
+        <v>565842</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>631637</v>
+        <v>632762</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5196859997543708</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4880326660687527</v>
+        <v>0.4921911329577039</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5494228628970873</v>
+        <v>0.5504009181374807</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>456</v>
@@ -4938,19 +4938,19 @@
         <v>481684</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>452848</v>
+        <v>449824</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>511017</v>
+        <v>507783</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5832403396507222</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5483246414037952</v>
+        <v>0.5446633717002061</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.618757357669155</v>
+        <v>0.6148410923383182</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1031</v>
@@ -4959,19 +4959,19 @@
         <v>1079135</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1034428</v>
+        <v>1036760</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1125987</v>
+        <v>1125919</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.546255281938347</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5236247088374361</v>
+        <v>0.5248052923769733</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5699715314138802</v>
+        <v>0.5699371572739528</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>552187</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>518001</v>
+        <v>516876</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>588577</v>
+        <v>583796</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4803140002456292</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4505771371029127</v>
+        <v>0.4495990818625191</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5119673339312474</v>
+        <v>0.5078088670422959</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>342</v>
@@ -5009,19 +5009,19 @@
         <v>344192</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>314859</v>
+        <v>318093</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>373028</v>
+        <v>376052</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4167596603492779</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3812426423308451</v>
+        <v>0.385158907661682</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.451675358596205</v>
+        <v>0.4553366282997941</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>870</v>
@@ -5030,19 +5030,19 @@
         <v>896379</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>849527</v>
+        <v>849595</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>941086</v>
+        <v>938754</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.453744718061653</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4300284685861208</v>
+        <v>0.4300628427260479</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4763752911625639</v>
+        <v>0.4751947076230268</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>312323</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>288588</v>
+        <v>286369</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>337890</v>
+        <v>340512</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5031739884205825</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4649345559005543</v>
+        <v>0.4613604329547187</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5443645750406791</v>
+        <v>0.5485877842017802</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>496</v>
@@ -5155,19 +5155,19 @@
         <v>532632</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>508333</v>
+        <v>506736</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>556999</v>
+        <v>555671</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7214847395436357</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6885706233513075</v>
+        <v>0.6864075614164663</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7544920108547976</v>
+        <v>0.7526931573814722</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>803</v>
@@ -5176,19 +5176,19 @@
         <v>844955</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>810099</v>
+        <v>806903</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>881783</v>
+        <v>882580</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6217704262697585</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5961209491626532</v>
+        <v>0.5937694984902334</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6488707607224065</v>
+        <v>0.6494571429631107</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>308383</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>282816</v>
+        <v>280194</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>332118</v>
+        <v>334337</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4968260115794176</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4556354249593208</v>
+        <v>0.4514122157982197</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5350654440994457</v>
+        <v>0.5386395670452814</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>203</v>
@@ -5226,19 +5226,19 @@
         <v>205612</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>181245</v>
+        <v>182573</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>229911</v>
+        <v>231508</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2785152604563644</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2455079891452025</v>
+        <v>0.2473068426185278</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3114293766486925</v>
+        <v>0.3135924385835337</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>493</v>
@@ -5247,19 +5247,19 @@
         <v>513995</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>477167</v>
+        <v>476370</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>548851</v>
+        <v>552047</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3782295737302415</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3511292392775934</v>
+        <v>0.3505428570368895</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4038790508373468</v>
+        <v>0.4062305015097668</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>70379</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>55562</v>
+        <v>56004</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>86913</v>
+        <v>86633</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2450983712571908</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1934991743924591</v>
+        <v>0.1950371345396546</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3026801110274135</v>
+        <v>0.3017059007240498</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>670</v>
@@ -5372,19 +5372,19 @@
         <v>755692</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>725833</v>
+        <v>728070</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>785594</v>
+        <v>792787</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6984052716068396</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6708096512450831</v>
+        <v>0.6728767873822108</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7260404885406874</v>
+        <v>0.7326883761159576</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>736</v>
@@ -5393,19 +5393,19 @@
         <v>826071</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>790434</v>
+        <v>787971</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>862600</v>
+        <v>866227</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6033368164313007</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5773088152385496</v>
+        <v>0.5755100382312793</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6300165430783683</v>
+        <v>0.6326659909541905</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>216766</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>200232</v>
+        <v>200512</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>231583</v>
+        <v>231141</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7549016287428092</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6973198889725868</v>
+        <v>0.6982940992759502</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8065008256075409</v>
+        <v>0.8049628654603455</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>322</v>
@@ -5443,19 +5443,19 @@
         <v>326333</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>296431</v>
+        <v>289238</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>356192</v>
+        <v>353955</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3015947283931604</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2739595114593125</v>
+        <v>0.2673116238840424</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3291903487549166</v>
+        <v>0.3271232126177892</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>528</v>
@@ -5464,19 +5464,19 @@
         <v>543099</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>506570</v>
+        <v>502943</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>578736</v>
+        <v>581199</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3966631835686994</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3699834569216316</v>
+        <v>0.3673340090458094</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4226911847614504</v>
+        <v>0.4244899617687206</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>1687221</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1628278</v>
+        <v>1628426</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1744981</v>
+        <v>1747045</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4983342627758572</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4809248189236715</v>
+        <v>0.4809686703319061</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.515393999922006</v>
+        <v>0.5160037285500534</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2101</v>
@@ -5589,19 +5589,19 @@
         <v>2287999</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2223200</v>
+        <v>2232358</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2344808</v>
+        <v>2344296</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6478655064484664</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6295171790764817</v>
+        <v>0.632110109932925</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.663951376333405</v>
+        <v>0.6638064744287013</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3720</v>
@@ -5610,19 +5610,19 @@
         <v>3975220</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3894082</v>
+        <v>3890324</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4065915</v>
+        <v>4059118</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5746765560541134</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.562946724863159</v>
+        <v>0.5624035111952859</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5877877808886071</v>
+        <v>0.5868052079686054</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>1698501</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1640741</v>
+        <v>1638677</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1757444</v>
+        <v>1757296</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5016657372241428</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.484606000077994</v>
+        <v>0.4839962714499466</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5190751810763284</v>
+        <v>0.5190313296680938</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1225</v>
@@ -5660,19 +5660,19 @@
         <v>1243597</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1186788</v>
+        <v>1187300</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1308396</v>
+        <v>1299238</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3521344935515336</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3360486236665951</v>
+        <v>0.3361935255712988</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3704828209235185</v>
+        <v>0.3678898900670751</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2830</v>
@@ -5681,19 +5681,19 @@
         <v>2942098</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2851403</v>
+        <v>2858200</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3023236</v>
+        <v>3026994</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4253234439458866</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4122122191113929</v>
+        <v>0.4131947920313946</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.437053275136841</v>
+        <v>0.4375964888047142</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>303119</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>279390</v>
+        <v>274614</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>329290</v>
+        <v>328441</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5505061140696617</v>
+        <v>0.5505061140696618</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5074122746539272</v>
+        <v>0.49873841245985</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5980365579328231</v>
+        <v>0.5964959259954165</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>417</v>
@@ -6048,19 +6048,19 @@
         <v>282667</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>261705</v>
+        <v>262494</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>300516</v>
+        <v>300443</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.5787484456776218</v>
+        <v>0.5787484456776217</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5358288881040899</v>
+        <v>0.5374451214059628</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6152929819261191</v>
+        <v>0.6151444280795518</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>747</v>
@@ -6069,19 +6069,19 @@
         <v>585786</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>554337</v>
+        <v>553667</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>614397</v>
+        <v>617020</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.5637818360948056</v>
+        <v>0.5637818360948057</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5335148808013287</v>
+        <v>0.5328699075867612</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5913181047231393</v>
+        <v>0.5938432399676875</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>247499</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>221328</v>
+        <v>222177</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>271228</v>
+        <v>276004</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4494938859303384</v>
+        <v>0.4494938859303383</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.401963442067177</v>
+        <v>0.4035040740045836</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4925877253460729</v>
+        <v>0.5012615875401498</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>269</v>
@@ -6119,19 +6119,19 @@
         <v>205744</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>187895</v>
+        <v>187968</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>226706</v>
+        <v>225917</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4212515543223783</v>
+        <v>0.4212515543223782</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3847070180738809</v>
+        <v>0.3848555719204481</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4641711118959103</v>
+        <v>0.4625548785940373</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>493</v>
@@ -6140,19 +6140,19 @@
         <v>453243</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>424632</v>
+        <v>422009</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>484692</v>
+        <v>485362</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4362181639051945</v>
+        <v>0.4362181639051944</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4086818952768607</v>
+        <v>0.4061567600323124</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4664851191986716</v>
+        <v>0.4671300924132387</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>260540</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>236394</v>
+        <v>236786</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>284979</v>
+        <v>284128</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5391835533258263</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4892132274242999</v>
+        <v>0.4900257370221679</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5897599992464992</v>
+        <v>0.5879979836024052</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>363</v>
@@ -6265,19 +6265,19 @@
         <v>244331</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>225509</v>
+        <v>227451</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>261717</v>
+        <v>262661</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5774193206198721</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5329381324632043</v>
+        <v>0.5375263854623903</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6185062593167601</v>
+        <v>0.6207388844664105</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>649</v>
@@ -6286,19 +6286,19 @@
         <v>504871</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>473823</v>
+        <v>475975</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>532565</v>
+        <v>535634</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.5570343862596543</v>
+        <v>0.5570343862596542</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5227787539059872</v>
+        <v>0.5251528400313484</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5875902296155188</v>
+        <v>0.5909760640594733</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>222672</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>198233</v>
+        <v>199084</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>246818</v>
+        <v>246426</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4608164466741737</v>
+        <v>0.4608164466741735</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4102400007535008</v>
+        <v>0.4120020163975948</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5107867725757002</v>
+        <v>0.509974262977832</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>227</v>
@@ -6336,19 +6336,19 @@
         <v>178812</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>161426</v>
+        <v>160482</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>197634</v>
+        <v>195692</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.4225806793801278</v>
+        <v>0.4225806793801277</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3814937406832399</v>
+        <v>0.3792611155335898</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4670618675367955</v>
+        <v>0.46247361453761</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>422</v>
@@ -6357,19 +6357,19 @@
         <v>401484</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>373790</v>
+        <v>370721</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>432532</v>
+        <v>430380</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4429656137403458</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4124097703844811</v>
+        <v>0.4090239359405268</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.477221246094013</v>
+        <v>0.4748471599686517</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>269607</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>246188</v>
+        <v>250802</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>291073</v>
+        <v>294277</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5716719135693588</v>
+        <v>0.5716719135693586</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5220141890133375</v>
+        <v>0.5317974668112136</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6171875590233959</v>
+        <v>0.6239821418036186</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>216</v>
@@ -6482,19 +6482,19 @@
         <v>136189</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>125406</v>
+        <v>125375</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>145356</v>
+        <v>146225</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7263552736762382</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6688410168484311</v>
+        <v>0.6686787051121007</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7752439481052181</v>
+        <v>0.7798785489932675</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>517</v>
@@ -6503,19 +6503,19 @@
         <v>405797</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>378842</v>
+        <v>379449</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>427680</v>
+        <v>430481</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6156748175618098</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5747793768701457</v>
+        <v>0.5756997003729269</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.648875456187447</v>
+        <v>0.6531259880047792</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>202005</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>180539</v>
+        <v>177335</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>225424</v>
+        <v>220810</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4283280864306414</v>
+        <v>0.4283280864306413</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.382812440976604</v>
+        <v>0.376017858196381</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4779858109866623</v>
+        <v>0.4682025331887865</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>73</v>
@@ -6553,19 +6553,19 @@
         <v>51308</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>42141</v>
+        <v>41272</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>62091</v>
+        <v>62122</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.2736447263237619</v>
+        <v>0.2736447263237618</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2247560518947819</v>
+        <v>0.2201214510067325</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3311589831515691</v>
+        <v>0.3313212948878994</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>260</v>
@@ -6574,19 +6574,19 @@
         <v>253312</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>231429</v>
+        <v>228628</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>280267</v>
+        <v>279660</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3843251824381902</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3511245438125528</v>
+        <v>0.3468740119952204</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4252206231298541</v>
+        <v>0.424300299627073</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>626825</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>589848</v>
+        <v>590206</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>664489</v>
+        <v>664196</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.553809143411229</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5211395009395279</v>
+        <v>0.5214560584460728</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5870862534538542</v>
+        <v>0.5868271073017556</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>826</v>
@@ -6699,19 +6699,19 @@
         <v>540595</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>513301</v>
+        <v>515351</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>564801</v>
+        <v>566259</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6277153322576726</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5960218048724463</v>
+        <v>0.5984031430029494</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6558214333982341</v>
+        <v>0.6575145669296818</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1522</v>
@@ -6720,19 +6720,19 @@
         <v>1167420</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1121763</v>
+        <v>1116510</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1215594</v>
+        <v>1212139</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.5857444784785807</v>
+        <v>0.5857444784785808</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5628362098929214</v>
+        <v>0.5602003785617429</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6099153836347613</v>
+        <v>0.6081818165584097</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>505018</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>467354</v>
+        <v>467647</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>541995</v>
+        <v>541637</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4461908565887711</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4129137465461457</v>
+        <v>0.4131728926982445</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4788604990604721</v>
+        <v>0.4785439415539272</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>404</v>
@@ -6770,19 +6770,19 @@
         <v>320616</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>296410</v>
+        <v>294952</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>347910</v>
+        <v>345860</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3722846677423274</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3441785666017658</v>
+        <v>0.3424854330703182</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4039781951275536</v>
+        <v>0.4015968569970507</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>826</v>
@@ -6791,19 +6791,19 @@
         <v>825634</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>777460</v>
+        <v>780915</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>871291</v>
+        <v>876544</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.4142555215214191</v>
+        <v>0.4142555215214193</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.390084616365238</v>
+        <v>0.3918181834415899</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4371637901070783</v>
+        <v>0.439799621438256</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>287128</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>261646</v>
+        <v>262954</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>314538</v>
+        <v>315912</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.5055386947941635</v>
+        <v>0.5055386947941634</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4606730767339926</v>
+        <v>0.462976184718635</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5537990881411089</v>
+        <v>0.5562192318417929</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>950</v>
@@ -6916,19 +6916,19 @@
         <v>576864</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>552607</v>
+        <v>553132</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>598373</v>
+        <v>598961</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6949107823119004</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.665689627136982</v>
+        <v>0.6663222066527308</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7208212014275085</v>
+        <v>0.7215297431837241</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1257</v>
@@ -6937,19 +6937,19 @@
         <v>863992</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>827099</v>
+        <v>831929</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>897341</v>
+        <v>902641</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.6179798385794598</v>
+        <v>0.6179798385794597</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5915919642879687</v>
+        <v>0.5950461850909012</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6418332425923913</v>
+        <v>0.6456235749908503</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>280836</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>253426</v>
+        <v>252052</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>306318</v>
+        <v>305010</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4944613052058367</v>
+        <v>0.4944613052058366</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4462009118588909</v>
+        <v>0.4437807681582072</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5393269232660075</v>
+        <v>0.5370238152813649</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>339</v>
@@ -6987,19 +6987,19 @@
         <v>253263</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>231754</v>
+        <v>231166</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>277520</v>
+        <v>276995</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3050892176880997</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2791787985724916</v>
+        <v>0.278470256816276</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3343103728630179</v>
+        <v>0.3336777933472692</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>579</v>
@@ -7008,19 +7008,19 @@
         <v>534099</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>500750</v>
+        <v>495450</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>570992</v>
+        <v>566162</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3820201614205403</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3581667574076089</v>
+        <v>0.3543764250091496</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4084080357120314</v>
+        <v>0.4049538149090988</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>60408</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>42816</v>
+        <v>41505</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>82283</v>
+        <v>82577</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2546418216751828</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1804827002998078</v>
+        <v>0.1749582235968631</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3468531686146607</v>
+        <v>0.348090199835965</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>825</v>
@@ -7133,19 +7133,19 @@
         <v>524448</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>492543</v>
+        <v>493797</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>554567</v>
+        <v>554963</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.6221257759258465</v>
+        <v>0.6221257759258463</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5842793716829925</v>
+        <v>0.5857665689658775</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6578547443152717</v>
+        <v>0.6583245254103257</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>859</v>
@@ -7154,19 +7154,19 @@
         <v>584856</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>548495</v>
+        <v>543743</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>625599</v>
+        <v>621206</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.5414224658468293</v>
+        <v>0.5414224658468292</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5077617199660879</v>
+        <v>0.5033630932676164</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5791399163099809</v>
+        <v>0.5750734566980039</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>176820</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>154945</v>
+        <v>154651</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>194412</v>
+        <v>195723</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7453581783248172</v>
+        <v>0.745358178324817</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6531468313853394</v>
+        <v>0.6519098001640354</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.819517299700192</v>
+        <v>0.8250417764031374</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>332</v>
@@ -7204,19 +7204,19 @@
         <v>318545</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>288426</v>
+        <v>288030</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>350450</v>
+        <v>349196</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.3778742240741536</v>
+        <v>0.3778742240741534</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3421452556847282</v>
+        <v>0.3416754745896743</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4157206283170075</v>
+        <v>0.4142334310341229</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>410</v>
@@ -7225,19 +7225,19 @@
         <v>495365</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>454622</v>
+        <v>459015</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>531726</v>
+        <v>536478</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4585775341531707</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4208600836900193</v>
+        <v>0.4249265433019961</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4922382800339125</v>
+        <v>0.4966369067323836</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>1807626</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1746373</v>
+        <v>1744636</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1873391</v>
+        <v>1872717</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5250948356126319</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5073014065708088</v>
+        <v>0.5067969794471648</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5441987592542121</v>
+        <v>0.5440030428632666</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3597</v>
@@ -7350,19 +7350,19 @@
         <v>2305095</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2247610</v>
+        <v>2250841</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2356057</v>
+        <v>2360390</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6344212577101719</v>
+        <v>0.6344212577101718</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6185999040070288</v>
+        <v>0.6194891189016173</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6484474000984382</v>
+        <v>0.6496400293875151</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5551</v>
@@ -7371,19 +7371,19 @@
         <v>4112721</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4021364</v>
+        <v>4030388</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4191882</v>
+        <v>4200474</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.5812328586974663</v>
+        <v>0.5812328586974662</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5683217975125762</v>
+        <v>0.5695971348598331</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5924203394753027</v>
+        <v>0.5936346187207525</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>1634850</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1569085</v>
+        <v>1569759</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1696103</v>
+        <v>1697840</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4749051643873682</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4558012407457876</v>
+        <v>0.4559969571367333</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.492698593429191</v>
+        <v>0.4932030205528352</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1644</v>
@@ -7421,19 +7421,19 @@
         <v>1328287</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1277325</v>
+        <v>1272992</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1385772</v>
+        <v>1382541</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.3655787422898282</v>
+        <v>0.3655787422898281</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3515525999015621</v>
+        <v>0.3503599706124849</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3814000959929716</v>
+        <v>0.3805108810983825</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2990</v>
@@ -7442,19 +7442,19 @@
         <v>2963137</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2883976</v>
+        <v>2875384</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3054494</v>
+        <v>3045470</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4187671413025337</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4075796605246975</v>
+        <v>0.4063653812792476</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4316782024874239</v>
+        <v>0.4304028651401669</v>
       </c>
     </row>
     <row r="24">
